--- a/数据整理/stocks/A股/上证主板/600566-济川药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600566-济川药业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.35</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.34</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5156</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009455</t>
+          <t>005796</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信汇融一年定期开放混合C</t>
+          <t>嘉实新添荣定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>99.35</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>60.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3971</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.35</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.54</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3379</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.35</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.54</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005796</t>
+          <t>005797</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实新添荣定期开放灵活配置混合A</t>
+          <t>嘉实新添荣定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>60.66</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.67</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -632,26 +692,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005797</t>
+          <t>009455</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实新添荣定期开放灵活配置混合C</t>
+          <t>创金合信汇融一年定期开放混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>60.66</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +754,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +784,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003912</t>
+          <t>009454</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利启富灵活配置混合A</t>
+          <t>创金合信汇融一年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>65.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5160</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +822,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003913</t>
+          <t>005796</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利启富灵活配置混合C</t>
+          <t>嘉实新添荣定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>10.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3966</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +860,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162205</t>
+          <t>009686</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰达宏利风险预算混合</t>
+          <t>华夏磐利一年定期开放混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.61</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3385</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +898,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005796</t>
+          <t>162205</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实新添荣定期开放灵活配置混合A</t>
+          <t>泰达宏利风险预算混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>60.86</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +936,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005797</t>
+          <t>009687</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实新添荣定期开放灵活配置混合C</t>
+          <t>华夏磐利一年定期开放混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>60.86</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -846,26 +974,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009454</t>
+          <t>003912</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>创金合信汇融一年定期开放混合A</t>
+          <t>泰达宏利启富灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>65.08</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -874,26 +1012,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009455</t>
+          <t>005797</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>创金合信汇融一年定期开放混合C</t>
+          <t>嘉实新添荣定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>65.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -902,26 +1050,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009686</t>
+          <t>003913</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏磐利一年定期开放混合A</t>
+          <t>泰达宏利启富灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -930,26 +1088,30 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009687</t>
+          <t>009455</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏磐利一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
+          <t>创金合信汇融一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>65.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600566-济川药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600566-济川药业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,6 @@
           <t>创金合信汇融一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>65.08</t>
@@ -1112,6 +1112,100 @@
       </c>
       <c r="H10" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600566-济川药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600566-济川药业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1211,4 +1212,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600566-济川药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600566-济川药业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1420,4 +1421,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600566-济川药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600566-济川药业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,7 +1430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1440,17 +1441,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1460,14 +1481,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.22</v>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9691</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1476,14 +1519,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5994</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1492,14 +1557,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3322</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.36</v>
       </c>
     </row>
     <row r="5">
@@ -1508,13 +1595,873 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005113</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005114</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>700002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安深证300指数增强</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.28</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600566-济川药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600566-济川药业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2360,7 +2361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2371,17 +2372,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2391,14 +2412,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.56</v>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8082</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2407,14 +2450,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.22</v>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7210</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2423,14 +2488,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6086</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2439,14 +2526,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.36</v>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4602</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2455,13 +2564,1877 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>014199</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4061</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3732</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2636</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1965</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159758</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证红利质量ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>61.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005113</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014200</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>700002</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安深证300指数增强</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005114</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>61.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>26.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.28</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600566-济川药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600566-济川药业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4317,7 +4318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4328,17 +4329,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4348,14 +4369,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.56</v>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7501</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4364,14 +4407,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.56</v>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4380,14 +4445,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.22</v>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6235</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4396,14 +4483,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.02</v>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2820</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -4412,14 +4521,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.36</v>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -4428,13 +4559,753 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011948</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159758</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证红利质量ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>851088</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>850010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>851099</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.28</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600566-济川药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600566-济川药业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>3.26</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>5.56</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>2.56</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>0.22</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1.36</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.28</v>
       </c>
     </row>
@@ -600,6 +617,1430 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5146</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4950</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3681</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2808</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2452</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011948</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1400</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天治核心成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013940</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159758</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证红利质量ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013941</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>39.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014328</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>64.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014327</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>64.92</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1453,7 +2894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3409,7 +4850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4339,7 +5780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4547,7 +5988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4641,7 +6082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5032,7 +6473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600566-济川药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600566-济川药业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D2" t="n">
-        <v>3.08</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>3.26</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>5.56</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>2.56</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>0.22</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1.36</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.28</v>
       </c>
     </row>
@@ -616,7 +633,2281 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009454</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信汇融一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5156</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005796</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新添荣定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3971</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3379</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005797</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新添荣定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009455</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信汇融一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8103</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6415</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5262</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4060</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3514</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3026</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1833</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159758</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证红利质量ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>016518</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰紫金创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008905</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉合锦鹏添利混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>016517</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰紫金创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014053</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>太平睿庆混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>39.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008906</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉合锦鹏添利混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015453</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015454</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002584</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014054</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>太平睿庆混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>39.27</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>59.86</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014328</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014327</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>016214</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>59.86</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2040,7 +4331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2894,7 +5185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4850,7 +7141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5780,7 +8071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5988,7 +8279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6082,7 +8373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6471,286 +8762,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009454</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>创金合信汇融一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.88</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5156</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005796</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实新添荣定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>60.66</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3971</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009686</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏磐利一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3379</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009687</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏磐利一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0299</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005797</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实新添荣定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>60.66</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009455</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>创金合信汇融一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>99.35</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>